--- a/fuzzy_error_maxmin.xlsx
+++ b/fuzzy_error_maxmin.xlsx
@@ -42,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -64,8 +64,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,12 +111,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -266,11 +279,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,9 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -323,47 +397,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -694,7 +774,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,136 +793,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>1</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>14</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>14</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>14</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>14</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>13</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <v>1</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>15</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>15</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>15</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>5</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="14">
         <v>15</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="14">
         <v>6</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>4</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>5</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>6</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>7</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>8</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>9</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <v>10</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>11</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <v>12</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="17">
         <v>13</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <v>14</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="17">
         <v>15</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="17">
         <v>16</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>17</v>
       </c>
     </row>
@@ -851,145 +931,145 @@
         <v>5</v>
       </c>
       <c r="B4" s="9">
-        <f>B2*16</f>
-        <v>16</v>
+        <f>IF(B2=1,B2,(B2-1)*16)</f>
+        <v>1</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" ref="C4:R4" si="0">C2*16</f>
-        <v>16</v>
+        <f t="shared" ref="C4:R4" si="0">IF(C2=1,C2,(C2-1)*16)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="9">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="R4" s="10">
+        <v>80</v>
+      </c>
+      <c r="R4" s="9">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <f>(C3-1)*16</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12">
-        <f>B3*16</f>
-        <v>16</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" ref="C5:R5" si="1">C3*16</f>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5:P5" si="1">(D3-1)*16</f>
         <v>32</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F5" s="11">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="11">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="11">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="K5" s="12">
+      <c r="L5" s="11">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="11">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="11">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="N5" s="12">
+      <c r="O5" s="11">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="O5" s="12">
+      <c r="P5" s="11">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="P5" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="11">
+        <f>(Q3-1)*16</f>
         <v>240</v>
       </c>
-      <c r="Q5" s="12">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="R5" s="13">
-        <f t="shared" si="1"/>
-        <v>272</v>
+      <c r="R5" s="12">
+        <f>254</f>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
@@ -1017,7 +1097,7 @@
       <c r="H6" s="6">
         <v>1.9112459312538022E-2</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="21">
         <v>0.10296111292547039</v>
       </c>
       <c r="J6" s="6">
@@ -1049,136 +1129,136 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="29.25" thickBot="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>12</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>12</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>5</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>9</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>12</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>6</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>12</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>2</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>2</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>2</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>3</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>4</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>4</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>6</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>4</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <v>3</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>2</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>3</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>4</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>5</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>6</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>7</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>8</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>9</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <v>10</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>11</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>12</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="17">
         <v>13</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <v>14</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <v>15</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>16</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="18">
         <v>17</v>
       </c>
     </row>
@@ -1187,145 +1267,144 @@
         <v>5</v>
       </c>
       <c r="B11" s="9">
-        <f>B9*16</f>
-        <v>192</v>
+        <f>IF(B9=1,B9,(B9-1)*16)</f>
+        <v>176</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" ref="C11:R11" si="2">C9*16</f>
-        <v>192</v>
+        <f t="shared" ref="C11:R11" si="2">IF(C9=1,C9,(C9-1)*16)</f>
+        <v>176</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="N11" s="9">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="R11" s="10">
+        <v>32</v>
+      </c>
+      <c r="R11" s="9">
         <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <f>(C10-1)*16</f>
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" ref="D12:Q12" si="3">(D10-1)*16</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12">
-        <f>B10*16</f>
-        <v>16</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" ref="C12:R12" si="3">C10*16</f>
-        <v>32</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="E12" s="11">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="E12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="F12" s="12">
+      <c r="G12" s="11">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="G12" s="12">
+      <c r="H12" s="11">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="I12" s="12">
+      <c r="J12" s="11">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="11">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="K12" s="12">
+      <c r="L12" s="11">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="11">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="11">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="N12" s="12">
+      <c r="O12" s="11">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="O12" s="12">
+      <c r="P12" s="11">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="P12" s="12">
+      <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="Q12" s="12">
-        <f t="shared" si="3"/>
-        <v>256</v>
-      </c>
-      <c r="R12" s="13">
-        <f t="shared" si="3"/>
-        <v>272</v>
+      <c r="R12" s="12">
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
@@ -1350,7 +1429,7 @@
       <c r="G13" s="3">
         <v>-1.0572707989629961</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="22">
         <v>-1.0206139030996155</v>
       </c>
       <c r="I13" s="3">
@@ -1390,17 +1469,17 @@
     <mergeCell ref="A8:R8"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:R6">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:R13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>-2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>-2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1413,12 +1492,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
@@ -1431,1053 +1511,1056 @@
     <col min="17" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:19" ht="19.5" thickBot="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="C2" s="23">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B2" s="26"/>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
         <v>16</v>
       </c>
-      <c r="D2" s="23">
+      <c r="E2" s="31">
         <v>32</v>
       </c>
-      <c r="E2" s="23">
+      <c r="F2" s="31">
         <v>48</v>
       </c>
-      <c r="F2" s="23">
+      <c r="G2" s="31">
         <v>64</v>
       </c>
-      <c r="G2" s="23">
+      <c r="H2" s="31">
         <v>80</v>
       </c>
-      <c r="H2" s="23">
+      <c r="I2" s="31">
         <v>96</v>
       </c>
-      <c r="I2" s="23">
+      <c r="J2" s="31">
         <v>112</v>
       </c>
-      <c r="J2" s="23">
+      <c r="K2" s="31">
         <v>128</v>
       </c>
-      <c r="K2" s="23">
+      <c r="L2" s="31">
         <v>144</v>
       </c>
-      <c r="L2" s="23">
+      <c r="M2" s="31">
         <v>160</v>
       </c>
-      <c r="M2" s="23">
+      <c r="N2" s="31">
         <v>176</v>
       </c>
-      <c r="N2" s="23">
+      <c r="O2" s="31">
         <v>192</v>
       </c>
-      <c r="O2" s="23">
+      <c r="P2" s="31">
         <v>208</v>
       </c>
-      <c r="P2" s="23">
+      <c r="Q2" s="31">
         <v>224</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="R2" s="31">
         <v>240</v>
       </c>
-      <c r="R2" s="23">
-        <v>256</v>
-      </c>
-      <c r="S2" s="23">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="26" t="s">
+      <c r="S2" s="31">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>-0.47826086956521774</v>
+      </c>
+      <c r="N3" s="27">
+        <v>-0.19948231233822611</v>
+      </c>
+      <c r="O3" s="27">
+        <v>-0.4303986238852886</v>
+      </c>
+      <c r="P3" s="27">
+        <v>-0.398900963324337</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>-0.31283981649330883</v>
+      </c>
+      <c r="R3" s="27">
+        <v>-0.71052631578947967</v>
+      </c>
+      <c r="S3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="29">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>-0.47826086956521774</v>
-      </c>
-      <c r="N3">
-        <v>-0.19948231233822611</v>
-      </c>
-      <c r="O3">
-        <v>-0.4303986238852886</v>
-      </c>
-      <c r="P3">
-        <v>-0.398900963324337</v>
-      </c>
-      <c r="Q3">
-        <v>-0.31283981649330883</v>
-      </c>
-      <c r="R3">
-        <v>-0.71052631578947967</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23">
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>-0.88111888111888104</v>
+      </c>
+      <c r="F4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="G4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="H4" s="27">
+        <v>-0.35850338287639261</v>
+      </c>
+      <c r="I4" s="27">
+        <v>-0.81578009889279812</v>
+      </c>
+      <c r="J4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="K4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="L4" s="27">
+        <v>-0.94193548387096726</v>
+      </c>
+      <c r="M4" s="27">
+        <v>-0.83061339335959516</v>
+      </c>
+      <c r="N4" s="27">
+        <v>-0.86390212335145833</v>
+      </c>
+      <c r="O4" s="27">
+        <v>-0.48303885589668738</v>
+      </c>
+      <c r="P4" s="27">
+        <v>-0.1871013690454788</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>-0.73475020662795032</v>
+      </c>
+      <c r="R4" s="27">
+        <v>-0.72213219616205038</v>
+      </c>
+      <c r="S4" s="27">
+        <v>-1.0129032258064399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="29">
         <v>32</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
         <v>-0.88111888111888104</v>
       </c>
-      <c r="F4">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="G4">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="H4">
-        <v>-0.35850338287639261</v>
-      </c>
-      <c r="I4">
-        <v>-0.81578009889279812</v>
-      </c>
-      <c r="J4">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="K4">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="L4">
-        <v>-0.94193548387096726</v>
-      </c>
-      <c r="M4">
-        <v>-0.83061339335959516</v>
-      </c>
-      <c r="N4">
-        <v>-0.86390212335145833</v>
-      </c>
-      <c r="O4">
-        <v>-0.48303885589668738</v>
-      </c>
-      <c r="P4">
-        <v>-0.1871013690454788</v>
-      </c>
-      <c r="Q4">
-        <v>-0.73475020662795032</v>
-      </c>
-      <c r="R4">
-        <v>-0.72213219616205038</v>
-      </c>
-      <c r="S4">
-        <v>-1.0129032258064399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23">
+      <c r="F5" s="27">
+        <v>-0.2381162944948052</v>
+      </c>
+      <c r="G5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="H5" s="27">
+        <v>-0.65743441714861106</v>
+      </c>
+      <c r="I5" s="27">
+        <v>-0.87105943015939857</v>
+      </c>
+      <c r="J5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="K5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="L5" s="27">
+        <v>-0.53284671532847128</v>
+      </c>
+      <c r="M5" s="27">
+        <v>-1.0480940505878209</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-0.97485929538059679</v>
+      </c>
+      <c r="O5" s="27">
+        <v>-0.55214975973281355</v>
+      </c>
+      <c r="P5" s="27">
+        <v>-0.11115041976526641</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>-0.28974995254105806</v>
+      </c>
+      <c r="R5" s="27">
+        <v>-0.79847826322580318</v>
+      </c>
+      <c r="S5" s="27">
+        <v>-0.7672343876723744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="29">
         <v>48</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
         <v>-0.88111888111888104</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="27">
         <v>-0.2381162944948052</v>
       </c>
-      <c r="G5">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="H5">
-        <v>-0.65743441714861106</v>
-      </c>
-      <c r="I5">
-        <v>-0.87105943015939857</v>
-      </c>
-      <c r="J5">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="K5">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="L5">
-        <v>-0.53284671532847128</v>
-      </c>
-      <c r="M5">
-        <v>-1.0480940505878209</v>
-      </c>
-      <c r="N5">
-        <v>-0.97485929538059679</v>
-      </c>
-      <c r="O5">
-        <v>-0.55214975973281355</v>
-      </c>
-      <c r="P5">
-        <v>-0.11115041976526641</v>
-      </c>
-      <c r="Q5">
-        <v>-0.28974995254105806</v>
-      </c>
-      <c r="R5">
-        <v>-0.79847826322580318</v>
-      </c>
-      <c r="S5">
-        <v>-0.7672343876723744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23">
+      <c r="G6" s="27">
+        <v>-0.55479328398628525</v>
+      </c>
+      <c r="H6" s="27">
+        <v>-0.28695293652955201</v>
+      </c>
+      <c r="I6" s="27">
+        <v>-0.80904406629132808</v>
+      </c>
+      <c r="J6" s="27">
+        <v>-0.85878875161071022</v>
+      </c>
+      <c r="K6" s="27">
+        <v>-0.85878875161071022</v>
+      </c>
+      <c r="L6" s="27">
+        <v>-0.85878875161071022</v>
+      </c>
+      <c r="M6" s="27">
+        <v>-0.77816979199443637</v>
+      </c>
+      <c r="N6" s="27">
+        <v>-1.054978189533557</v>
+      </c>
+      <c r="O6" s="27">
+        <v>-0.95074931962035691</v>
+      </c>
+      <c r="P6" s="27">
+        <v>-0.45196957556555617</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>-0.90271504008410375</v>
+      </c>
+      <c r="R6" s="27">
+        <v>-0.78698057462190718</v>
+      </c>
+      <c r="S6" s="27">
+        <v>-0.21481088455999497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="29">
         <v>64</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>-1.100086116357792</v>
+      </c>
+      <c r="F7" s="27">
+        <v>-0.49747702509580805</v>
+      </c>
+      <c r="G7" s="27">
+        <v>-0.53038814128677814</v>
+      </c>
+      <c r="H7" s="27">
+        <v>-0.43500829678534103</v>
+      </c>
+      <c r="I7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="J7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="K7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="L7" s="27">
+        <v>-0.74942543411644635</v>
+      </c>
+      <c r="M7" s="27">
+        <v>-1.0406690736770798</v>
+      </c>
+      <c r="N7" s="27">
+        <v>-0.30823103504910421</v>
+      </c>
+      <c r="O7" s="32">
+        <v>-0.38935979069339055</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0.1480001454672788</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>-0.50552170153565612</v>
+      </c>
+      <c r="R7" s="27">
+        <v>-0.13879941304608678</v>
+      </c>
+      <c r="S7" s="27">
+        <v>-0.25537325502213548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="29">
+        <v>80</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
         <v>-0.88111888111888104</v>
       </c>
-      <c r="F6">
+      <c r="F8" s="27">
         <v>-0.2381162944948052</v>
       </c>
-      <c r="G6">
+      <c r="G8" s="27">
         <v>-0.55479328398628525</v>
       </c>
-      <c r="H6">
-        <v>-0.28695293652955201</v>
-      </c>
-      <c r="I6">
-        <v>-0.80904406629132808</v>
-      </c>
-      <c r="J6">
-        <v>-0.85878875161071022</v>
-      </c>
-      <c r="K6">
-        <v>-0.85878875161071022</v>
-      </c>
-      <c r="L6">
-        <v>-0.85878875161071022</v>
-      </c>
-      <c r="M6">
-        <v>-0.77816979199443637</v>
-      </c>
-      <c r="N6">
-        <v>-1.054978189533557</v>
-      </c>
-      <c r="O6">
-        <v>-0.95074931962035691</v>
-      </c>
-      <c r="P6">
-        <v>-0.45196957556555617</v>
-      </c>
-      <c r="Q6">
-        <v>-0.90271504008410375</v>
-      </c>
-      <c r="R6">
-        <v>-0.78698057462190718</v>
-      </c>
-      <c r="S6">
-        <v>-0.21481088455999497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="26"/>
-      <c r="B7" s="23">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-1.100086116357792</v>
-      </c>
-      <c r="F7">
-        <v>-0.49747702509580805</v>
-      </c>
-      <c r="G7">
-        <v>-0.53038814128677814</v>
-      </c>
-      <c r="H7">
-        <v>-0.43500829678534103</v>
-      </c>
-      <c r="I7">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="J7">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="K7">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="L7">
-        <v>-0.74942543411644635</v>
-      </c>
-      <c r="M7">
-        <v>-1.0406690736770798</v>
-      </c>
-      <c r="N7">
-        <v>-0.30823103504910421</v>
-      </c>
-      <c r="O7" s="22">
-        <v>-0.38935979069339055</v>
-      </c>
-      <c r="P7">
-        <v>0.1480001454672788</v>
-      </c>
-      <c r="Q7">
-        <v>-0.50552170153565612</v>
-      </c>
-      <c r="R7">
-        <v>-0.13879941304608678</v>
-      </c>
-      <c r="S7">
-        <v>-0.25537325502213548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23">
+      <c r="H8" s="27">
+        <v>-1.0572707989629961</v>
+      </c>
+      <c r="I8" s="27">
+        <v>-0.17134103228848119</v>
+      </c>
+      <c r="J8" s="27">
+        <v>-0.39330269205515833</v>
+      </c>
+      <c r="K8" s="27">
+        <v>-0.39330269205515833</v>
+      </c>
+      <c r="L8" s="27">
+        <v>-0.39330269205515833</v>
+      </c>
+      <c r="M8" s="27">
+        <v>-0.34675783739932342</v>
+      </c>
+      <c r="N8" s="27">
+        <v>-0.42395526730820166</v>
+      </c>
+      <c r="O8" s="27">
+        <v>-0.63906441369101685</v>
+      </c>
+      <c r="P8" s="27">
+        <v>-0.70628653193153923</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>-0.19480846036441335</v>
+      </c>
+      <c r="R8" s="27">
+        <v>0.29935585342795434</v>
+      </c>
+      <c r="S8" s="27">
+        <v>-5.5154300722279004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="29">
         <v>96</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
         <v>-0.88111888111888104</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="27">
         <v>-0.2381162944948052</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="27">
         <v>-0.55479328398628525</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="27">
         <v>-1.0572707989629961</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="27">
         <v>-0.17134103228848119</v>
       </c>
-      <c r="J8">
-        <v>-0.39330269205515833</v>
-      </c>
-      <c r="K8">
-        <v>-0.39330269205515833</v>
-      </c>
-      <c r="L8">
-        <v>-0.39330269205515833</v>
-      </c>
-      <c r="M8">
-        <v>-0.34675783739932342</v>
-      </c>
-      <c r="N8">
-        <v>-0.42395526730820166</v>
-      </c>
-      <c r="O8">
-        <v>-0.63906441369101685</v>
-      </c>
-      <c r="P8">
-        <v>-0.70628653193153923</v>
-      </c>
-      <c r="Q8">
-        <v>-0.19480846036441335</v>
-      </c>
-      <c r="R8">
-        <v>0.29935585342795434</v>
-      </c>
-      <c r="S8">
-        <v>-5.5154300722279004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23">
+      <c r="J9" s="27">
+        <v>-0.43799633475869371</v>
+      </c>
+      <c r="K9" s="27">
+        <v>-0.52517985611510198</v>
+      </c>
+      <c r="L9" s="27">
+        <v>-0.52517985611510198</v>
+      </c>
+      <c r="M9" s="27">
+        <v>-0.87697160883280389</v>
+      </c>
+      <c r="N9" s="27">
+        <v>-0.79102704842802041</v>
+      </c>
+      <c r="O9" s="27">
+        <v>-0.81324563103748915</v>
+      </c>
+      <c r="P9" s="27">
+        <v>-0.38385755553454715</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>-0.6025302663126979</v>
+      </c>
+      <c r="R9" s="27">
+        <v>-7.0380669287573028E-2</v>
+      </c>
+      <c r="S9" s="27">
+        <v>-0.33093525179856442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="29">
         <v>112</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
         <v>-0.88111888111888104</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="27">
         <v>-0.2381162944948052</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="27">
         <v>-0.55479328398628525</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="27">
         <v>-1.0572707989629961</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="27">
         <v>-0.17134103228848119</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="27">
         <v>-0.43799633475869371</v>
       </c>
-      <c r="K9">
-        <v>-0.52517985611510198</v>
-      </c>
-      <c r="L9">
-        <v>-0.52517985611510198</v>
-      </c>
-      <c r="M9">
-        <v>-0.87697160883280389</v>
-      </c>
-      <c r="N9">
-        <v>-0.79102704842802041</v>
-      </c>
-      <c r="O9">
-        <v>-0.81324563103748915</v>
-      </c>
-      <c r="P9">
-        <v>-0.38385755553454715</v>
-      </c>
-      <c r="Q9">
-        <v>-0.6025302663126979</v>
-      </c>
-      <c r="R9">
-        <v>-7.0380669287573028E-2</v>
-      </c>
-      <c r="S9">
-        <v>-0.33093525179856442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23">
+      <c r="K10" s="27">
+        <v>-0.28535058873450225</v>
+      </c>
+      <c r="L10" s="27">
+        <v>-0.5479452054794649</v>
+      </c>
+      <c r="M10" s="27">
+        <v>-0.55472467709040529</v>
+      </c>
+      <c r="N10" s="27">
+        <v>-0.46049170089145264</v>
+      </c>
+      <c r="O10" s="27">
+        <v>-0.61825811000741737</v>
+      </c>
+      <c r="P10" s="27">
+        <v>-0.42094322254229155</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>-0.15046444433025385</v>
+      </c>
+      <c r="R10" s="27">
+        <v>-6.9973245523783589E-2</v>
+      </c>
+      <c r="S10" s="27">
+        <v>-1.5625E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="29">
         <v>128</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-0.88111888111888104</v>
-      </c>
-      <c r="F10">
-        <v>-0.2381162944948052</v>
-      </c>
-      <c r="G10">
-        <v>-0.55479328398628525</v>
-      </c>
-      <c r="H10">
-        <v>-1.0572707989629961</v>
-      </c>
-      <c r="I10">
-        <v>-0.17134103228848119</v>
-      </c>
-      <c r="J10">
-        <v>-0.43799633475869371</v>
-      </c>
-      <c r="K10">
-        <v>-0.28535058873450225</v>
-      </c>
-      <c r="L10">
-        <v>-0.5479452054794649</v>
-      </c>
-      <c r="M10">
-        <v>-0.55472467709040529</v>
-      </c>
-      <c r="N10">
-        <v>-0.46049170089145264</v>
-      </c>
-      <c r="O10">
-        <v>-0.61825811000741737</v>
-      </c>
-      <c r="P10">
-        <v>-0.42094322254229155</v>
-      </c>
-      <c r="Q10">
-        <v>-0.15046444433025385</v>
-      </c>
-      <c r="R10">
-        <v>-6.9973245523783589E-2</v>
-      </c>
-      <c r="S10">
-        <v>-1.5625E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="26"/>
-      <c r="B11" s="23">
+      <c r="C11" s="27">
+        <v>-0.46040213377103179</v>
+      </c>
+      <c r="D11" s="27">
+        <v>-0.46040213377103179</v>
+      </c>
+      <c r="E11" s="27">
+        <v>-0.97720028715003693</v>
+      </c>
+      <c r="F11" s="27">
+        <v>-1.1473988322539412</v>
+      </c>
+      <c r="G11" s="27">
+        <v>-0.43359980978306822</v>
+      </c>
+      <c r="H11" s="27">
+        <v>-1.0140291126854066</v>
+      </c>
+      <c r="I11" s="27">
+        <v>-0.83756936382474123</v>
+      </c>
+      <c r="J11" s="27">
+        <v>-0.15452816864272734</v>
+      </c>
+      <c r="K11" s="27">
+        <v>-0.71647215303974576</v>
+      </c>
+      <c r="L11" s="27">
+        <v>-0.12926462216560708</v>
+      </c>
+      <c r="M11" s="27">
+        <v>-0.55929421419779146</v>
+      </c>
+      <c r="N11" s="27">
+        <v>-0.3756686798964779</v>
+      </c>
+      <c r="O11" s="27">
+        <v>-0.79095734312244304</v>
+      </c>
+      <c r="P11" s="27">
+        <v>4.2377600458792131E-2</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>-7.722743408450583E-2</v>
+      </c>
+      <c r="R11" s="27">
+        <v>-0.64473684210528859</v>
+      </c>
+      <c r="S11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="29">
         <v>144</v>
       </c>
-      <c r="C11">
-        <v>-0.46040213377103179</v>
-      </c>
-      <c r="D11">
-        <v>-0.46040213377103179</v>
-      </c>
-      <c r="E11">
-        <v>-0.97720028715003693</v>
-      </c>
-      <c r="F11">
-        <v>-1.1473988322539412</v>
-      </c>
-      <c r="G11">
-        <v>-0.43359980978306822</v>
-      </c>
-      <c r="H11">
-        <v>-1.0140291126854066</v>
-      </c>
-      <c r="I11">
-        <v>-0.83756936382474123</v>
-      </c>
-      <c r="J11">
-        <v>-0.15452816864272734</v>
-      </c>
-      <c r="K11">
-        <v>-0.71647215303974576</v>
-      </c>
-      <c r="L11">
-        <v>-0.12926462216560708</v>
-      </c>
-      <c r="M11">
-        <v>-0.55929421419779146</v>
-      </c>
-      <c r="N11">
-        <v>-0.3756686798964779</v>
-      </c>
-      <c r="O11">
+      <c r="C12" s="27">
+        <v>-0.28991367063708395</v>
+      </c>
+      <c r="D12" s="27">
+        <v>-0.28991367063708395</v>
+      </c>
+      <c r="E12" s="27">
+        <v>-0.3881074707319101</v>
+      </c>
+      <c r="F12" s="27">
+        <v>-0.90949127453497169</v>
+      </c>
+      <c r="G12" s="27">
+        <v>-0.93875858960589653</v>
+      </c>
+      <c r="H12" s="27">
+        <v>-0.54119832430714609</v>
+      </c>
+      <c r="I12" s="27">
+        <v>-0.72255706821978549</v>
+      </c>
+      <c r="J12" s="27">
+        <v>-0.63372265029140351</v>
+      </c>
+      <c r="K12" s="27">
+        <v>-0.53617937733278609</v>
+      </c>
+      <c r="L12" s="27">
+        <v>-0.358564000138756</v>
+      </c>
+      <c r="M12" s="27">
+        <v>-0.56999235056278508</v>
+      </c>
+      <c r="N12" s="27">
+        <v>-0.56999235056278508</v>
+      </c>
+      <c r="O12" s="27">
         <v>-0.79095734312244304</v>
       </c>
-      <c r="P11">
+      <c r="P12" s="27">
         <v>4.2377600458792131E-2</v>
       </c>
-      <c r="Q11">
+      <c r="Q12" s="27">
         <v>-7.722743408450583E-2</v>
       </c>
-      <c r="R11">
+      <c r="R12" s="27">
         <v>-0.64473684210528859</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="26"/>
-      <c r="B12" s="23">
+      <c r="S12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="29">
         <v>160</v>
       </c>
-      <c r="C12">
-        <v>-0.28991367063708395</v>
-      </c>
-      <c r="D12">
-        <v>-0.28991367063708395</v>
-      </c>
-      <c r="E12">
-        <v>-0.3881074707319101</v>
-      </c>
-      <c r="F12">
-        <v>-0.90949127453497169</v>
-      </c>
-      <c r="G12">
-        <v>-0.93875858960589653</v>
-      </c>
-      <c r="H12">
-        <v>-0.54119832430714609</v>
-      </c>
-      <c r="I12">
-        <v>-0.72255706821978549</v>
-      </c>
-      <c r="J12">
-        <v>-0.63372265029140351</v>
-      </c>
-      <c r="K12">
-        <v>-0.53617937733278609</v>
-      </c>
-      <c r="L12">
-        <v>-0.358564000138756</v>
-      </c>
-      <c r="M12">
-        <v>-0.56999235056278508</v>
-      </c>
-      <c r="N12">
-        <v>-0.56999235056278508</v>
-      </c>
-      <c r="O12">
-        <v>-0.79095734312244304</v>
-      </c>
-      <c r="P12">
+      <c r="C13" s="27">
+        <v>-0.15069593346539989</v>
+      </c>
+      <c r="D13" s="27">
+        <v>-0.15069593346539989</v>
+      </c>
+      <c r="E13" s="27">
+        <v>-1.0471166609903761</v>
+      </c>
+      <c r="F13" s="27">
+        <v>-0.31244352910647422</v>
+      </c>
+      <c r="G13" s="27">
+        <v>-0.27417607037735081</v>
+      </c>
+      <c r="H13" s="32">
+        <v>-0.63243795448128992</v>
+      </c>
+      <c r="I13" s="32">
+        <v>-0.71778224924712219</v>
+      </c>
+      <c r="J13" s="27">
+        <v>-0.68341988864207792</v>
+      </c>
+      <c r="K13" s="27">
+        <v>-0.33681032862628513</v>
+      </c>
+      <c r="L13" s="27">
+        <v>-0.36765752774624616</v>
+      </c>
+      <c r="M13" s="27">
+        <v>-0.58046336150880506</v>
+      </c>
+      <c r="N13" s="27">
+        <v>-0.58046336150880506</v>
+      </c>
+      <c r="O13" s="27">
+        <v>-0.10762634356510148</v>
+      </c>
+      <c r="P13" s="27">
         <v>4.2377600458792131E-2</v>
       </c>
-      <c r="Q12">
+      <c r="Q13" s="27">
+        <v>-0.41435227081237258</v>
+      </c>
+      <c r="R13" s="27">
+        <v>-0.65641285369653701</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="29">
+        <v>176</v>
+      </c>
+      <c r="C14" s="27">
+        <v>-0.78129870666073487</v>
+      </c>
+      <c r="D14" s="27">
+        <v>-0.78129870666073487</v>
+      </c>
+      <c r="E14" s="27">
+        <v>-0.56986132449112858</v>
+      </c>
+      <c r="F14" s="27">
+        <v>-1.0126639940838089</v>
+      </c>
+      <c r="G14" s="27">
+        <v>-1.1679024052543951</v>
+      </c>
+      <c r="H14" s="32">
+        <v>-0.46229737866815412</v>
+      </c>
+      <c r="I14" s="32">
+        <v>-1.0206139030996155</v>
+      </c>
+      <c r="J14" s="32">
+        <v>-0.12321025219065973</v>
+      </c>
+      <c r="K14" s="27">
+        <v>-6.672141633953288E-2</v>
+      </c>
+      <c r="L14" s="27">
+        <v>-0.82805308042088654</v>
+      </c>
+      <c r="M14" s="27">
+        <v>-0.38273758528501389</v>
+      </c>
+      <c r="N14" s="27">
+        <v>-0.38273758528501389</v>
+      </c>
+      <c r="O14" s="27">
+        <v>-0.84998819501825551</v>
+      </c>
+      <c r="P14" s="27">
+        <v>4.2377600458792131E-2</v>
+      </c>
+      <c r="Q14" s="27">
         <v>-7.722743408450583E-2</v>
       </c>
-      <c r="R12">
+      <c r="R14" s="27">
+        <v>-0.21494856077265467</v>
+      </c>
+      <c r="S14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="29">
+        <v>192</v>
+      </c>
+      <c r="C15" s="27">
+        <v>-2.6084491068900206E-2</v>
+      </c>
+      <c r="D15" s="27">
+        <v>-2.6084491068900206E-2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>-0.84980433443912773</v>
+      </c>
+      <c r="F15" s="27">
+        <v>-0.72395937281142153</v>
+      </c>
+      <c r="G15" s="27">
+        <v>-0.93413275832648424</v>
+      </c>
+      <c r="H15" s="27">
+        <v>-0.20452526867393317</v>
+      </c>
+      <c r="I15" s="27">
+        <v>-0.678768096633803</v>
+      </c>
+      <c r="J15" s="27">
+        <v>-0.46126290481399224</v>
+      </c>
+      <c r="K15" s="27">
+        <v>0.34350183933432277</v>
+      </c>
+      <c r="L15" s="27">
+        <v>-0.34655220312325241</v>
+      </c>
+      <c r="M15" s="27">
+        <v>-0.7564502409979923</v>
+      </c>
+      <c r="N15" s="27">
+        <v>-0.7564502409979923</v>
+      </c>
+      <c r="O15" s="27">
+        <v>-0.63563574400785683</v>
+      </c>
+      <c r="P15" s="27">
+        <v>-0.30035458029394135</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>-7.722743408450583E-2</v>
+      </c>
+      <c r="R15" s="27">
         <v>-0.64473684210528859</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="26"/>
-      <c r="B13" s="23">
-        <v>176</v>
-      </c>
-      <c r="C13">
-        <v>-0.15069593346539989</v>
-      </c>
-      <c r="D13">
-        <v>-0.15069593346539989</v>
-      </c>
-      <c r="E13">
-        <v>-1.0471166609903761</v>
-      </c>
-      <c r="F13">
-        <v>-0.31244352910647422</v>
-      </c>
-      <c r="G13">
-        <v>-0.27417607037735081</v>
-      </c>
-      <c r="H13" s="22">
-        <v>-0.63243795448128992</v>
-      </c>
-      <c r="I13" s="22">
-        <v>-0.71778224924712219</v>
-      </c>
-      <c r="J13">
-        <v>-0.68341988864207792</v>
-      </c>
-      <c r="K13">
-        <v>-0.33681032862628513</v>
-      </c>
-      <c r="L13">
-        <v>-0.36765752774624616</v>
-      </c>
-      <c r="M13">
-        <v>-0.58046336150880506</v>
-      </c>
-      <c r="N13">
-        <v>-0.58046336150880506</v>
-      </c>
-      <c r="O13">
-        <v>-0.10762634356510148</v>
-      </c>
-      <c r="P13">
-        <v>4.2377600458792131E-2</v>
-      </c>
-      <c r="Q13">
-        <v>-0.41435227081237258</v>
-      </c>
-      <c r="R13">
-        <v>-0.65641285369653701</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23">
-        <v>192</v>
-      </c>
-      <c r="C14">
-        <v>-0.78129870666073487</v>
-      </c>
-      <c r="D14">
-        <v>-0.78129870666073487</v>
-      </c>
-      <c r="E14">
-        <v>-0.56986132449112858</v>
-      </c>
-      <c r="F14">
-        <v>-1.0126639940838089</v>
-      </c>
-      <c r="G14">
-        <v>-1.1679024052543951</v>
-      </c>
-      <c r="H14" s="22">
-        <v>-0.46229737866815412</v>
-      </c>
-      <c r="I14" s="22">
-        <v>-1.0206139030996155</v>
-      </c>
-      <c r="J14" s="22">
-        <v>-0.12321025219065973</v>
-      </c>
-      <c r="K14">
-        <v>-6.672141633953288E-2</v>
-      </c>
-      <c r="L14">
-        <v>-0.82805308042088654</v>
-      </c>
-      <c r="M14">
-        <v>-0.38273758528501389</v>
-      </c>
-      <c r="N14">
-        <v>-0.38273758528501389</v>
-      </c>
-      <c r="O14">
-        <v>-0.84998819501825551</v>
-      </c>
-      <c r="P14">
-        <v>4.2377600458792131E-2</v>
-      </c>
-      <c r="Q14">
-        <v>-7.722743408450583E-2</v>
-      </c>
-      <c r="R14">
-        <v>-0.21494856077265467</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="26"/>
-      <c r="B15" s="23">
+      <c r="S15" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="29">
         <v>208</v>
       </c>
-      <c r="C15">
-        <v>-2.6084491068900206E-2</v>
-      </c>
-      <c r="D15">
-        <v>-2.6084491068900206E-2</v>
-      </c>
-      <c r="E15">
-        <v>-0.84980433443912773</v>
-      </c>
-      <c r="F15">
-        <v>-0.72395937281142153</v>
-      </c>
-      <c r="G15">
-        <v>-0.93413275832648424</v>
-      </c>
-      <c r="H15">
-        <v>-0.20452526867393317</v>
-      </c>
-      <c r="I15">
-        <v>-0.678768096633803</v>
-      </c>
-      <c r="J15">
-        <v>-0.46126290481399224</v>
-      </c>
-      <c r="K15">
-        <v>0.34350183933432277</v>
-      </c>
-      <c r="L15">
-        <v>-0.34655220312325241</v>
-      </c>
-      <c r="M15">
-        <v>-0.7564502409979923</v>
-      </c>
-      <c r="N15">
-        <v>-0.7564502409979923</v>
-      </c>
-      <c r="O15">
-        <v>-0.63563574400785683</v>
-      </c>
-      <c r="P15">
-        <v>-0.30035458029394135</v>
-      </c>
-      <c r="Q15">
-        <v>-7.722743408450583E-2</v>
-      </c>
-      <c r="R15">
+      <c r="C16" s="27">
+        <v>-0.47488637687915514</v>
+      </c>
+      <c r="D16" s="27">
+        <v>-0.47488637687915514</v>
+      </c>
+      <c r="E16" s="27">
+        <v>-0.3542076119488371</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.14374424048938295</v>
+      </c>
+      <c r="G16" s="27">
+        <v>4.4221129893514899E-2</v>
+      </c>
+      <c r="H16" s="27">
+        <v>-1.4971284445891797E-2</v>
+      </c>
+      <c r="I16" s="27">
+        <v>1.9112459312538022E-2</v>
+      </c>
+      <c r="J16" s="27">
+        <v>0.10296111292547039</v>
+      </c>
+      <c r="K16" s="27">
+        <v>-0.27168626745012148</v>
+      </c>
+      <c r="L16" s="27">
+        <v>-0.42830318853481231</v>
+      </c>
+      <c r="M16" s="27">
+        <v>-0.37548071320358645</v>
+      </c>
+      <c r="N16" s="27">
+        <v>-0.37548071320358645</v>
+      </c>
+      <c r="O16" s="27">
+        <v>-0.47202886145049661</v>
+      </c>
+      <c r="P16" s="27">
+        <v>-0.25798935984744276</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>-0.29757631576697463</v>
+      </c>
+      <c r="R16" s="27">
         <v>-0.64473684210528859</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23">
+      <c r="S16" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="29">
         <v>224</v>
       </c>
-      <c r="C16">
-        <v>-0.47488637687915514</v>
-      </c>
-      <c r="D16">
-        <v>-0.47488637687915514</v>
-      </c>
-      <c r="E16">
-        <v>-0.3542076119488371</v>
-      </c>
-      <c r="F16">
-        <v>0.14374424048938295</v>
-      </c>
-      <c r="G16">
-        <v>4.4221129893514899E-2</v>
-      </c>
-      <c r="H16">
-        <v>-1.4971284445891797E-2</v>
-      </c>
-      <c r="I16">
-        <v>1.9112459312538022E-2</v>
-      </c>
-      <c r="J16">
-        <v>0.10296111292547039</v>
-      </c>
-      <c r="K16">
-        <v>-0.27168626745012148</v>
-      </c>
-      <c r="L16">
-        <v>-0.42830318853481231</v>
-      </c>
-      <c r="M16">
-        <v>-0.37548071320358645</v>
-      </c>
-      <c r="N16">
-        <v>-0.37548071320358645</v>
-      </c>
-      <c r="O16">
-        <v>-0.47202886145049661</v>
-      </c>
-      <c r="P16">
-        <v>-0.25798935984744276</v>
-      </c>
-      <c r="Q16">
-        <v>-0.29757631576697463</v>
-      </c>
-      <c r="R16">
-        <v>-0.64473684210528859</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23">
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>-0.88811188811189368</v>
+      </c>
+      <c r="F17" s="27">
+        <v>-0.35905372540347003</v>
+      </c>
+      <c r="G17" s="27">
+        <v>-0.83697418306556415</v>
+      </c>
+      <c r="H17" s="27">
+        <v>-0.46248723387537893</v>
+      </c>
+      <c r="I17" s="27">
+        <v>-0.73619294524317525</v>
+      </c>
+      <c r="J17" s="27">
+        <v>-0.13194868662185399</v>
+      </c>
+      <c r="K17" s="27">
+        <v>-0.12888511721655505</v>
+      </c>
+      <c r="L17" s="27">
+        <v>-0.52054794520549308</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <v>0</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>0</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0</v>
+      </c>
+      <c r="S17" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="29">
         <v>240</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
         <v>-0.88811188811189368</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="27">
         <v>-0.35905372540347003</v>
       </c>
-      <c r="G17">
+      <c r="G18" s="27">
         <v>-0.83697418306556415</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="27">
         <v>-0.46248723387537893</v>
       </c>
-      <c r="I17">
+      <c r="I18" s="27">
         <v>-0.73619294524317525</v>
       </c>
-      <c r="J17">
+      <c r="J18" s="27">
         <v>-0.13194868662185399</v>
       </c>
-      <c r="K17">
+      <c r="K18" s="27">
         <v>-0.12888511721655505</v>
       </c>
-      <c r="L17">
+      <c r="L18" s="27">
         <v>-0.52054794520549308</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="M18" s="27">
+        <v>0</v>
+      </c>
+      <c r="N18" s="27">
+        <v>0</v>
+      </c>
+      <c r="O18" s="27">
+        <v>0</v>
+      </c>
+      <c r="P18" s="27">
         <v>-2.8421709430404007E-14</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23">
-        <v>256</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="Q18" s="27">
+        <v>0</v>
+      </c>
+      <c r="R18" s="27">
+        <v>0</v>
+      </c>
+      <c r="S18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="29">
+        <v>254</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
         <v>-0.88811188811189368</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="27">
         <v>-0.35905372540347003</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="27">
         <v>-0.83697418306556415</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="27">
         <v>-0.46248723387537893</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="27">
         <v>-0.73619294524317525</v>
       </c>
-      <c r="J18">
+      <c r="J19" s="27">
         <v>-0.13194868662185399</v>
       </c>
-      <c r="K18">
+      <c r="K19" s="27">
         <v>-0.12888511721655505</v>
       </c>
-      <c r="L18">
+      <c r="L19" s="27">
         <v>-0.52054794520549308</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="M19" s="27">
+        <v>0</v>
+      </c>
+      <c r="N19" s="27">
+        <v>0</v>
+      </c>
+      <c r="O19" s="27">
+        <v>0</v>
+      </c>
+      <c r="P19" s="27">
         <v>-2.8421709430404007E-14</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="23">
-        <v>272</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>-0.88811188811189368</v>
-      </c>
-      <c r="F19">
-        <v>-0.35905372540347003</v>
-      </c>
-      <c r="G19">
-        <v>-0.83697418306556415</v>
-      </c>
-      <c r="H19">
-        <v>-0.46248723387537893</v>
-      </c>
-      <c r="I19">
-        <v>-0.73619294524317525</v>
-      </c>
-      <c r="J19">
-        <v>-0.13194868662185399</v>
-      </c>
-      <c r="K19">
-        <v>-0.12888511721655505</v>
-      </c>
-      <c r="L19">
-        <v>-0.52054794520549308</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>-2.8421709430404007E-14</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+      <c r="Q19" s="27">
+        <v>0</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0</v>
+      </c>
+      <c r="S19" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="J22" s="29"/>
+      <c r="J22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2485,5 +2568,6 @@
     <mergeCell ref="A3:A19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>